--- a/data/구글검색기능_종합_주식정보_test.xlsx
+++ b/data/구글검색기능_종합_주식정보_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="163">
   <si>
     <t>뉴스 제목</t>
   </si>
@@ -31,6 +31,120 @@
     <t>전일대비 등락가격</t>
   </si>
   <si>
+    <t>휴전협상 재개 부정적인 하마스…이스라엘에 '바이든안' 이행 촉구</t>
+  </si>
+  <si>
+    <t>베네수엘라 좌파독재 이번엔 무너질까?</t>
+  </si>
+  <si>
+    <t>미국, 이스라엘 학교 공습에 “깊은 우려…휴전 협상 타결 시급”</t>
+  </si>
+  <si>
+    <t>미국, 이스라엘 학교 공습에 "깊은 우려‥휴전 협상 타결 시급"</t>
+  </si>
+  <si>
+    <t>[D23] 디즈니 크루즈 4척 더 만든다.. 한국에도 취항할까</t>
+  </si>
+  <si>
+    <t>러, 우크라軍 격퇴 실패 속… 불타는 자포리자 원전</t>
+  </si>
+  <si>
+    <t>디즈니, 수백억 달러 규모 테마파크 투자 세부 계획 공개</t>
+  </si>
+  <si>
+    <t>"무서워, 일본 여행 취소해야"…여름휴가 성수기에 '초비상'</t>
+  </si>
+  <si>
+    <t>트럼프 “해리스가 AI로 군중 사진 조작”…언론들 “트럼프, 좌절감에 거짓말까지”</t>
+  </si>
+  <si>
+    <t>우크라 급습에 허찔린 러시아, 키이우 보복 공습에 5명 사상</t>
+  </si>
+  <si>
+    <t>日혼슈 동북부에 내일 태풍 상륙할 듯…폭우 우려에 대피 요청도</t>
+  </si>
+  <si>
+    <t>디즈니 '성덕'들 모두 모였다, 디즈니D23 열린 애너하임 가보니[현장르포]</t>
+  </si>
+  <si>
+    <t>日열도, 5호 태풍 상륙에 긴장…460㎜ 넘는 폭우·8300여명 대피</t>
+  </si>
+  <si>
+    <t>난카이 대지진 괴담에 일본 기상청 “지진 발생일 정확히 알 수 없어”</t>
+  </si>
+  <si>
+    <t>트럼프, ‘현대家 며느리’ 리디아 고에 "금메달 장하다, 가장 인상적" 폭풍 칭찬</t>
+  </si>
+  <si>
+    <t>러, 우크라 진격 엿새째 속수무책…"쿠르스크 최대 30㎞ 뚫렸다"(종합)</t>
+  </si>
+  <si>
+    <t>태풍 '마리아' 일본 상륙‥"하루 최대 250㎜ 물폭탄 가능성"</t>
+  </si>
+  <si>
+    <t>해리스 등판 효과?…‘경합주’ 3곳서 트럼프 눌러</t>
+  </si>
+  <si>
+    <t>“쓰나미 무서워 바다 안 가”…日 난카이 트로프 대지진 공포 확대</t>
+  </si>
+  <si>
+    <t>“해리스, 경제 더 잘 다룰 것” FT 여론조사서 트럼프에 근소하게 앞서</t>
+  </si>
+  <si>
+    <t>'저 구름, 지진운일까'…日서 난카이 지진 거짓정보 일파만파</t>
+  </si>
+  <si>
+    <t>중국 부동산 침체 속에 법원 경매 넘어간 주택 규모도 증가세</t>
+  </si>
+  <si>
+    <t>“구름 좀 봐라, 대지진 불안”…‘이상한 구름’ 발견되자 日발칵</t>
+  </si>
+  <si>
+    <t>해리스, 핵심 경합주 ‘러스트벨트’ 3곳서 트럼프에 우위</t>
+  </si>
+  <si>
+    <t>NYT “트럼프, 해리스 부통령 언급할 때 여성 비하 욕설”</t>
+  </si>
+  <si>
+    <t>강력한 보복 의지 피력…일촉즉발 이란-이스라엘</t>
+  </si>
+  <si>
+    <t>러시아 점령 '자포리자 원전' 냉각탑 화재…"방사능 유출 없어"</t>
+  </si>
+  <si>
+    <t>美공화 밴스 "中과 무역전쟁, 필요하면 한다"[2024美대선]</t>
+  </si>
+  <si>
+    <t>러 점령 자포리자 원전 냉각탑에 화재 발생… 양측 책임 공방</t>
+  </si>
+  <si>
+    <t>본토 뚫린 러시아, 키이우에 보복 공습…5명 사상</t>
+  </si>
+  <si>
+    <t>[정치쇼] 민정훈 "美 대선 내일이라면? 해리스 승리…월즈, 괜찮은 선택"</t>
+  </si>
+  <si>
+    <t>배터리, 전기차 선택 기준으로 우뚝… 中 CATL, 오프라인 매장 출격</t>
+  </si>
+  <si>
+    <t>'난카이 대지진' 걱정되지만…"일본 여행 예정대로 갑니다"</t>
+  </si>
+  <si>
+    <t>101살 낡은 회사 아니다… "'원 디즈니' 빅테크 협업 마다 않아"</t>
+  </si>
+  <si>
+    <t>남중국해 영유권 분쟁 두고 필리핀 ‘정면승부’vs 베트남 ‘로키접근’</t>
+  </si>
+  <si>
+    <t>젤렌스키 "전쟁, 침략자 영토로 밀어내고 있다"… 러 본토 공격 공식화</t>
+  </si>
+  <si>
+    <t>[인터뷰]"재편되는 글로벌 공급망…韓·印 손 굳게 맞잡을 때"</t>
+  </si>
+  <si>
+    <t>걸그룹에 시부야 랜드마크까지…갤럭시 폴더블 일본 '러브콜'</t>
+  </si>
+  <si>
     <t>정부, 이틀 연속 '전기차 화재' 긴급회의 열고 대응책 고심</t>
   </si>
   <si>
@@ -52,9 +166,6 @@
     <t>엔씨소프트, 해외법인 자회사 리더십 개편</t>
   </si>
   <si>
-    <t>[단독] 택시도 '구독'시대…월 4900원에 쿠폰주는 카카오T | 팩플</t>
-  </si>
-  <si>
     <t>엔씨소프트, 해외 법인 리더십 개편</t>
   </si>
   <si>
@@ -103,12 +214,6 @@
     <t>페르세우스 유성우 12일 밤∼13일 새벽 쏟아진다</t>
   </si>
   <si>
-    <t>노조 설립 3개월째 상견례 못한 넷마블 노사…"성실 교섭 촉구"</t>
-  </si>
-  <si>
-    <t>티몬·위메프 법원에 자구안 제출…실효성 있나</t>
-  </si>
-  <si>
     <t>방통위 이진숙·김태규, 14일 방송장악 청문회 출석</t>
   </si>
   <si>
@@ -145,9 +250,6 @@
     <t>엔씨소프트, 엔씨아메리카 등 해외법인 대표 교체...윤송이·김택헌 직책 내려놔</t>
   </si>
   <si>
-    <t>무선 인프라 없이 미아·치매노인 위치 찾는 GPS 시스템 나왔다</t>
-  </si>
-  <si>
     <t>韓 차세대 보안 리더, 세계 최고 해킹 대회 3연패 달성</t>
   </si>
   <si>
@@ -181,147 +283,90 @@
     <t>페르세우스 유성우 쏟아진다…내일 밤 별똥별 절정</t>
   </si>
   <si>
-    <t>화학연·울산과기대, 바닷물 속 이산화탄소 연료 전환 기술 개발</t>
-  </si>
-  <si>
-    <t>무선 신호 안 터지는 실내서도 위치 파악 가능한 기술 나왔다</t>
-  </si>
-  <si>
-    <t>"해저케이블 선적 비용 65%↓"…김태성 LS전선 연구원 8월 韓 엔지니어상</t>
-  </si>
-  <si>
-    <t>소송에서 이긴 리플, 이젠 '스테이블코인'까지 진출 [코인브리핑]</t>
-  </si>
-  <si>
-    <t>바닷물 속 이산화탄소, 이제 연료다</t>
-  </si>
-  <si>
-    <t>바닷물 속 CO₂ 유용 연료로…화학연·UNIST, 저렴한 비금속 촉매 기반 전환 기술 개발</t>
-  </si>
-  <si>
-    <t>이경도·방찬우 에이스토리 PD “AI 콘텐츠, 완성도 위한 새 접근 중 하나…선택은 결국 사람”</t>
-  </si>
-  <si>
-    <t>"오늘 밤 11시 30분, 별똥별 쏟아집니다"</t>
-  </si>
-  <si>
-    <t>"미래 SW 기술 혁신 이끈다"…SW스타랩 10개 신규 선정</t>
-  </si>
-  <si>
-    <t>경쟁률 높아지는 과학기술 장교 선발‥내년엔 석사도 뽑아</t>
-  </si>
-  <si>
-    <t>美 엔씨웨스트 대표직 내려놓은 윤송이…문화재단 이사장만 유지</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈, 삼성증권 '전산시스템' 웹 전환 수주</t>
-  </si>
-  <si>
-    <t>'소프트웨어 연구실 최대 관심사' 과기부 SW스타랩 10곳 선정</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈, 삼성증권과 89억 규모 공급계약 체결</t>
-  </si>
-  <si>
-    <t>한국 차세대 보안리더, 세계 최고 해킹대회 3연패 금자탑</t>
-  </si>
-  <si>
-    <t>‘8월의 우주쇼’ 페르세우스 유성우 오늘 밤 쏟아진다…“밤 11시 30분 극대기”</t>
-  </si>
-  <si>
-    <t>한국 차세대 보안리더, 세계 최고 해킹대회 3연패 달성</t>
-  </si>
-  <si>
-    <t>넷마블 노조 “사측, 상견례도 회피… 부당 노동행위 중단·교섭 시간 보장하라”</t>
-  </si>
-  <si>
-    <t>페이머니 사용처 줄면 "전액환급"…페이사들 약관개정</t>
-  </si>
-  <si>
-    <t>엔씨소프트, 해외법인 자회사 리더십 개편... 진정희 전 펄어비스 아메리카 대표 영입</t>
-  </si>
-  <si>
-    <t>“‘얼음왕국’ 그린란드, 원래는 따뜻했다”…‘100만년 전 꽃’ 발견에 우려 쏟아진 이유[핵잼 사이언스]</t>
-  </si>
-  <si>
-    <t>오늘 밤하늘서 ‘유성우 우주쇼’…시간당 100개 쏟아진다</t>
-  </si>
-  <si>
-    <t>페북에 네이버 뉴스 올리면 삭제…메타 "오류 시정 중"</t>
-  </si>
-  <si>
-    <t>손태승 전 회장 사금고된 우리은행…임종룡 "부당 지시 거부할 수 있어야"</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈, 100억원 규모 삼성증권 ‘전산시스템’ 웹 전환 수주</t>
-  </si>
-  <si>
-    <t>대한민국 엔지니어상 8월 수상자에 LS전선 김태성 수석연구원</t>
-  </si>
-  <si>
-    <t>"한달새 15만명 방문"…에버랜드 '바오 컨셉트 갤Z폴드·플립6 체험존' 성황</t>
-  </si>
-  <si>
-    <t>이공계 대학생 '과학기술전문사관' 모집…ADD서 장교로 군복무</t>
-  </si>
-  <si>
-    <t>바닷물 속 이산화탄소 줄이고, 유용한 연료로 쓴다</t>
-  </si>
-  <si>
-    <t>오늘 23시 30분… ‘3대 별똥별’ 페르세우스 유성우 쏟아진다</t>
-  </si>
-  <si>
-    <t>[기후테크가 온다] 지그재그 외벽으로 3도 낮춘다…더우면 차양 닫는 건물도</t>
-  </si>
-  <si>
-    <t>오늘 밤 페르세우스 유성우 쏟아진다…"시간당 100개"</t>
-  </si>
-  <si>
-    <t>메디톡스, 우크라이나로부터 히알루론산 필러 제조소로 오송 3공장 추가 승인</t>
-  </si>
-  <si>
-    <t>삼성전자 바오 패밀리 갤럭시 체험존, 누적 방문객 15만명</t>
-  </si>
-  <si>
-    <t>"삼성 갤럭시 중고보상 프로그램 참여자 10만명 돌파"</t>
-  </si>
-  <si>
-    <t>“애플, 스마트 글라스 개발 전념…출시 시기는 미정”</t>
-  </si>
-  <si>
-    <t>확산세 빨라지는 코로나19…"위기단계 상향 조정 고려 안해"</t>
-  </si>
-  <si>
-    <t>인프라 없는 건설 현장서 치매 노인 위치 파악 가능</t>
-  </si>
-  <si>
-    <t>국내 화이트해커 MMM, 3년 연속 국제해킹대회 우승</t>
-  </si>
-  <si>
-    <t>국회 과방위서 '과학-방송·통신 분리'…국회법 개정안 나온다</t>
-  </si>
-  <si>
-    <t>대한민국 엔지니어상 8월 수상자에 김태성·박진용</t>
-  </si>
-  <si>
-    <t>삼성전자 ‘갤럭시Z6’ 중고보상 프로그램 10만명 참여</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>NA 
+주변 설명  이 기사는 베네수엘라 정치 상황과 경제 문제에 중점을 두고 있습니다 특정 주식 종목의 이름과 직접적인 관련성이 없습니다 
+다만 베네수엘라 최대 위기에 처했다며 민주주의가 말살되었고 경제도 고락하고 있다는 내용은 주변국의 경제 전망에도 영향을 미칠 수 있습니다 또한 에너지 생산 국가인 베네수엘라의 정치 불안정과 석유 산업은 세계적인 액체 자원시장에 영향을 줄 수 있다는 점도 간접으로 기관 투자 전략에 영향을 미칠 수 있습니다</t>
+  </si>
+  <si>
+    <t>NA 
+본 뉴스 기사에서는 민간인 피해가 발생한 가자지구의 사건과 휴전협상에 초점을 맞추고 있습니다 특정 주식 종목과의 직접적인 관련성은 찾기 어렵다고 판단됩니다</t>
+  </si>
+  <si>
+    <t>월트 디즈니</t>
+  </si>
+  <si>
+    <t>NA 
+ 뉴스에서는 러시아 본토까지 우크라이나 군이 진격했음을 보도하는 만큼 천연가스 산업과 관련된 종목이 유력으로 생각됩니다  하지만 명확하게 언급되지 않습니다 따라서 NA로 응답합니다</t>
+  </si>
+  <si>
+    <t>NA 
+뉴스 기사에서 언급된 주식 종목과의 직접적인 연관성이 확인되지 않습니다 다만 군사적 사건에 대한 관심 증가로 인해  경제 지수나 국방 관련 분야의 ETF 가 상승할 가능성이 있을 수 있습니다</t>
+  </si>
+  <si>
+    <t>동일본여객철도</t>
+  </si>
+  <si>
+    <t>지진 관련 뉴스에 가장 관련된 주식 종목명으로는 일본 기상청 등과 연관되어있는 국가 기관을 나타내며 민간 부문 주식은 찾기 어려움 따라서 정확히 NA를 반환하는 것이 적절하다 
+만약 뉴스 내용에서 언급된 지역의 건설 재료 회사나 에너지 회사 등 주택과 경제활동에 영향을 받는 기업이 있다면 그 주식종목명을 추천할 수 있습니다  ex) 일본 토목회사</t>
+  </si>
+  <si>
+    <t>NA 
+태풍의 영향을 받는 일본 지역과 항공 및 철도 운영 관련 회사들은 가장 관계가 있지만 주식 분야 전문지로서 특정 종목 추천은 불가능합니다</t>
+  </si>
+  <si>
+    <t>알파벳 Class A</t>
+  </si>
+  <si>
+    <t>NA 
+주어진 뉴스는 중국의 부동산 시장과 법원 경매를 주제로 작성되었습니다 따라서 괄호 안에 작성된 종목명처럼 특정 회사나 산업에 직접적으로 관련되지 않아 해당되는 유틸리티만 제공할 수 없습니다</t>
+  </si>
+  <si>
+    <t>NA 
+구름과 지진의 관련성은 과학적으로 증명되지 않았기 때문에 주식 시장에 직접적인 영향을 미치는 종목은 없다  단순히 해당 뉴스 내용에 연결하여 일본 내 지역 특성 연관 종목 예측만으로는 불합리합니다</t>
+  </si>
+  <si>
+    <t>NA  
+ 뉴스 분석 및 답변 설명
+ 뉴스 주요 내용 가설선거 결과에서 해리스 후보가 트럼프 전 대통령을  Russel Bel Wisconsin으로 향하며 민주당은 여론결과에서 앞서고 있다는 내용입니다
+ 관련 주식 종목 뉴스 내용은 정치 선거 분석에 중점을 두고 있으며 투자 관련 정보나 주가 변동에 대한 언급이 없습니다 따라서 주식 종목 추려내기 어렵습니다</t>
+  </si>
+  <si>
+    <t>NA 
+ 러시아 또는 우크라이나 의 경제 상황과 직접적인 관련이 있는  원자력 발전소 기업은 뉴스에 언급되지 않았습니다  IAEA는 국제 유엔 기구이며 주식 종목으로 거래되지 않습니다</t>
+  </si>
+  <si>
+    <t>엔비디아</t>
+  </si>
+  <si>
+    <t>CATL</t>
+  </si>
+  <si>
+    <t>NA  
+해설 한국 주식 시장에 나타나는 난카이 대지진과 직접적으로 관련된 종목은 없습니다
+ 여행 관광 분야 뉴스에서 언급될 수 있는 여행업계 항공기 등 관련 주식들은 해당 정보와 긴밀한 연관성을 가지는 경우가 많습니다 그러나 한국 시장 내 구체적인 기업명을 추출하는 것은 본 AI의 기능 범위를 넘어선다
+ 재해 관련 뉴스 내용에서 재해 예방 장비 건축 물자 등 분야는 의심할 여지가 존재하지만 그에 해당되는 구체적인 주식명을 제시하진 않는 것이 적절합니다 
+난카이 대지진과 관련된 정보는 일본 지진 및 재해 위험도에 대한 파악으로 유용합니다 한국 주식 시장의 특정 종목 추천은 금융 조언이며 이를 제공할 자격이 없습니다</t>
+  </si>
+  <si>
+    <t>모간스탠리</t>
+  </si>
+  <si>
+    <t>NA  
+뉴스는 베트남 필리핀의 남중국해 동맹 강화에 대한 내용이며 주식 종목 정보와 직접적으로 관련이 없습니다</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
     <t>우버 테크놀로지스</t>
   </si>
   <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
     <t>애플</t>
   </si>
   <si>
-    <t>알파벳 Class A</t>
-  </si>
-  <si>
     <t>엔씨소프트</t>
   </si>
   <si>
@@ -331,166 +376,89 @@
     <t>셀트리온</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
+    <t>블루엠텍</t>
   </si>
   <si>
     <t>NA 
-뉴스 내용은 방송통신 위원회와 과학기술 정보위원회의 분리에 대한 논의를 주관하고 있습니다 특정 주식 종목과 직접적인 관련성을 찾는 것은 어렵습니다</t>
-  </si>
-  <si>
-    <t>엔비디아</t>
+뉴스 기사 내용은 우체국쇼핑 이라는 서비스와 그 제품에 대한 정보가 중심입니다  
+주식 종목과 직접적인 관련성을 찾기 어렵습니다</t>
+  </si>
+  <si>
+    <t>에어컨   등 기업명이 뉴스와 관련이 높다</t>
   </si>
   <si>
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
-    <t>NA 
- 뉴스 내용에서는 특정 주식 종목을 언급하지 않았습니다  카이로스라는 이름의 실내외 통합 GPS 시스템에 대해 기술적 정보만 제공하고 있습니다</t>
-  </si>
-  <si>
-    <t>리플</t>
-  </si>
-  <si>
-    <t>에이스토리</t>
-  </si>
-  <si>
-    <t>NA 
- 뉴스 기사는 SW 스타랩 사업 선정 결과를 보도하는 내용이며 특정 회사 주식에 대한 언급은 포함하고 있지 않습니다 따라서 관련 주식 종목을 추출할 수 없습니다</t>
-  </si>
-  <si>
-    <t>컬러 스타 테크놀로지</t>
-  </si>
-  <si>
-    <t>펄어비스</t>
-  </si>
-  <si>
-    <t>NA 
-뉴스 기사 내용은 한국 바이오 기술 관련 기술 성취에 대한 멘트라고 볼 수 있습니다 주어진 정보로는 특정주식 종목과 직접적인 연관성을 찾기 어렵습니다  더 자세한 기술 분야나 기업 네트워킹 과정의 정보가 필요합니다</t>
-  </si>
-  <si>
-    <t>NA 
-뉴스 기사는 해킹 대회 우승팀과 그 과정에  중점을 두고 있으며 특정 주식 종목과의 직접적인 연관성을 찾기 어렵습니다</t>
-  </si>
-  <si>
-    <t>넷마블</t>
-  </si>
-  <si>
-    <t>NA 
-그린란드의 기후 변화 관련 기사를 보고 주식 이름을 추측해보는 것은 어렵습니다 뉴스에서는  가까운 과학적인 연구를 토대로 그린란드가 최근 110만 년 전에 얼음이 녹았을 가능성이 높은 것으로 나타났다라는 점에 집중하고 있습니다 
-하지만 이 주장이 의심스럽다고 하더라도 환경 문제와 관련된 어떤 기업의 주식 가격 변동에 영향을 미칠 수는 있습니다</t>
-  </si>
-  <si>
-    <t>NAVER</t>
-  </si>
-  <si>
-    <t>NA 
- 뉴스 기사에서 언급된 지그재그 패턴 외벽 건축 기술 관련 주식 종목이 명시되어 있지 않습니다 에너지 효율 환경기술 등과 연관될 수 있는 다양한 주식들이 있겠지만 뉴스 내용만으로는 특정 종목을 추론하기 어렵습니다</t>
-  </si>
-  <si>
-    <t>NA 
-뉴스 기사는 페르세우스 유성우 행상에 대한 정보를 담고 있기 때문에 주식 종목과 직접적인 관련이 없습니다</t>
-  </si>
-  <si>
-    <t>메디톡스</t>
-  </si>
-  <si>
-    <t>NA 
-新闻中提到的团队Maple Mallard Magistrates  是一个由白帽黑客组成参与比赛的团队没有具体上市公司</t>
-  </si>
-  <si>
-    <t>SK하이닉스</t>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>9020</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>300750</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>005930</t>
   </si>
   <si>
     <t>UBER</t>
   </si>
   <si>
-    <t>005930</t>
-  </si>
-  <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
     <t>036570</t>
   </si>
   <si>
-    <t>Kakao Mobility</t>
-  </si>
-  <si>
     <t>006260</t>
   </si>
   <si>
     <t>068270</t>
   </si>
   <si>
-    <t>246250</t>
-  </si>
-  <si>
-    <t>KOA</t>
-  </si>
-  <si>
-    <t>Netzmarble</t>
-  </si>
-  <si>
-    <t>CTEN</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>GOPAX</t>
-  </si>
-  <si>
-    <t>samsung  SEC</t>
-  </si>
-  <si>
-    <t>038470</t>
+    <t>439580</t>
   </si>
   <si>
     <t>450520</t>
   </si>
   <si>
-    <t>KRICT</t>
-  </si>
-  <si>
-    <t>XRP</t>
-  </si>
-  <si>
-    <t>241840</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>263750</t>
-  </si>
-  <si>
-    <t>251270</t>
-  </si>
-  <si>
-    <t>035420</t>
-  </si>
-  <si>
-    <t>086900</t>
-  </si>
-  <si>
-    <t>000660</t>
+    <t>90.38</t>
+  </si>
+  <si>
+    <t>2,818</t>
+  </si>
+  <si>
+    <t>163.38</t>
+  </si>
+  <si>
+    <t>119.37</t>
+  </si>
+  <si>
+    <t>185.62</t>
+  </si>
+  <si>
+    <t>103.61</t>
+  </si>
+  <si>
+    <t>74,400</t>
   </si>
   <si>
     <t>73.13</t>
   </si>
   <si>
-    <t>74,400</t>
-  </si>
-  <si>
     <t>229.00</t>
   </si>
   <si>
-    <t>163.38</t>
-  </si>
-  <si>
     <t>192,200</t>
   </si>
   <si>
@@ -500,51 +468,42 @@
     <t>197,100</t>
   </si>
   <si>
-    <t>4,415</t>
-  </si>
-  <si>
-    <t>119.37</t>
-  </si>
-  <si>
-    <t>73,600</t>
+    <t>21,600</t>
+  </si>
+  <si>
+    <t>72,500</t>
   </si>
   <si>
     <t>3,790</t>
   </si>
   <si>
-    <t>7,030</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>34,050</t>
-  </si>
-  <si>
-    <t>58,200</t>
-  </si>
-  <si>
-    <t>166,600</t>
-  </si>
-  <si>
-    <t>189,700</t>
-  </si>
-  <si>
-    <t>174,000</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>+58</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>+4.43</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>0.89</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>-0.79</t>
   </si>
   <si>
-    <t>1.60</t>
-  </si>
-  <si>
     <t>4,600</t>
   </si>
   <si>
@@ -554,37 +513,16 @@
     <t>-5,900</t>
   </si>
   <si>
-    <t>-85</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>−800</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>+1.78</t>
+  </si>
+  <si>
+    <t>−1,900</t>
   </si>
   <si>
     <t>-40</t>
-  </si>
-  <si>
-    <t>-80</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>-2,700</t>
-  </si>
-  <si>
-    <t>-2,500</t>
-  </si>
-  <si>
-    <t>-8,400</t>
-  </si>
-  <si>
-    <t>300</t>
   </si>
 </sst>
 </file>
@@ -942,7 +880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,16 +908,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -987,16 +925,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1004,16 +942,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1021,16 +959,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1038,16 +976,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1055,16 +993,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1072,16 +1010,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1089,16 +1027,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1106,16 +1044,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1123,16 +1061,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1140,16 +1078,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1157,16 +1095,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1174,16 +1112,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1191,16 +1129,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1208,16 +1146,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1225,16 +1163,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1245,13 +1183,13 @@
         <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1259,16 +1197,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1276,16 +1214,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1293,16 +1231,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1310,16 +1248,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1327,16 +1265,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1344,16 +1282,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1361,16 +1299,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1378,16 +1316,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1395,16 +1333,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1412,16 +1350,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1429,16 +1367,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1446,16 +1384,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1463,16 +1401,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1480,16 +1418,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1497,16 +1435,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1514,16 +1452,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1531,16 +1469,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
         <v>152</v>
-      </c>
-      <c r="E35" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1548,16 +1486,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1565,16 +1503,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1582,16 +1520,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1599,16 +1537,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1616,16 +1554,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1633,16 +1571,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1650,16 +1588,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1667,16 +1605,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1684,16 +1622,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1701,16 +1639,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1718,16 +1656,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1735,16 +1673,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
         <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1752,16 +1690,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1769,16 +1707,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1786,16 +1724,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1803,16 +1741,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1820,16 +1758,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1837,16 +1775,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1854,16 +1792,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1871,16 +1809,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55">
-        <v>771</v>
-      </c>
-      <c r="E55">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1888,16 +1826,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1905,16 +1843,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1922,16 +1860,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1939,16 +1877,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1956,16 +1894,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1973,16 +1911,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1990,16 +1928,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2007,16 +1945,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2024,16 +1962,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2041,16 +1979,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2058,16 +1996,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2075,16 +2013,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2092,16 +2030,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2109,16 +2047,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E69" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2126,16 +2064,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2143,16 +2081,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2160,16 +2098,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2177,16 +2115,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2194,16 +2132,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2211,16 +2149,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2228,16 +2166,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2245,16 +2183,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2262,16 +2200,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2279,16 +2217,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" t="s">
         <v>145</v>
       </c>
-      <c r="D79" t="s">
-        <v>163</v>
-      </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2296,16 +2234,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2313,16 +2251,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2330,16 +2268,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2347,16 +2285,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2364,16 +2302,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2381,152 +2319,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" t="s">
-        <v>153</v>
-      </c>
-      <c r="E87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
